--- a/data/out/Excel/Moraxellaceae.xlsx
+++ b/data/out/Excel/Moraxellaceae.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Bacteria Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Code\SequenceAnalysis\data\out\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B679BB-D807-4E76-A2FD-95F413488F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882E0F58-467F-4712-B40C-76B65641F570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="12630" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16560" yWindow="5940" windowWidth="17445" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Moraxellaceae" sheetId="1" r:id="rId1"/>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,6 +3226,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E116" xr:uid="{D3D19B44-1C6A-4856-99B1-EB5D7CFF94CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E116">
     <sortCondition descending="1" ref="E2"/>
   </sortState>
